--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3177.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3177.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.036027429297042</v>
+        <v>1.037445187568665</v>
       </c>
       <c r="B1">
-        <v>1.313277699272491</v>
+        <v>2.173807382583618</v>
       </c>
       <c r="C1">
-        <v>1.915594719257373</v>
+        <v>4.051377296447754</v>
       </c>
       <c r="D1">
-        <v>6.670581168819214</v>
+        <v>0.830157458782196</v>
       </c>
       <c r="E1">
-        <v>4.680002886776246</v>
+        <v>0.9154462814331055</v>
       </c>
     </row>
   </sheetData>
